--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18171\Coding\JokerLJZ.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95D20B8-00F2-4FD1-A4B8-585290F5AA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71926399-EAD7-413E-9238-E4C5DDC14A61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>项目经理</t>
   </si>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,152 +550,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0000DD-959F-43CD-9FC1-8FEE3E954D5A}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f ca="1">RANDBETWEEN(-5,100)</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>-5</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>-5</v>
+      </c>
+      <c r="F2">
+        <f>SUM(A2:E2)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>98</v>
+      </c>
+      <c r="D3">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="0">SUM(A3:E3)</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>84</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>92</v>
+      </c>
+      <c r="C6">
+        <v>99</v>
+      </c>
+      <c r="D6">
         <v>89</v>
       </c>
-      <c r="B2">
-        <f t="shared" ref="B2:D8" ca="1" si="0">RANDBETWEEN(-5,100)</f>
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E6">
+        <v>98</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>97</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>60</v>
       </c>
-      <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <f t="shared" ref="A3:D8" ca="1" si="1">RANDBETWEEN(-5,100)</f>
-        <v>76</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f t="shared" ca="1" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f t="shared" ca="1" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" ca="1" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
       <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>79</v>
+      </c>
+      <c r="E8">
+        <v>99</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <f>SUM(B2:B8)</f>
+        <v>360</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:E9" si="1">SUM(C2:C8)</f>
+        <v>292</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>381</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>393</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1426</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18171\Coding\JokerLJZ.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71926399-EAD7-413E-9238-E4C5DDC14A61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71C2939-6C1A-46CA-AE2E-830EC5C7A51E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="筛选数据" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>项目经理</t>
   </si>
@@ -90,6 +91,38 @@
   </si>
   <si>
     <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智障数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑残数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 逗逼数量 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 天才数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0000DD-959F-43CD-9FC1-8FEE3E954D5A}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
@@ -752,4 +785,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7A820C-BE5B-49A2-AB9A-13D278F3DAE2}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>